--- a/medicine/Mort/Monument_des_Enfants_–_Victimes_de_l'Holocauste/Monument_des_Enfants_–_Victimes_de_l'Holocauste.xlsx
+++ b/medicine/Mort/Monument_des_Enfants_–_Victimes_de_l'Holocauste/Monument_des_Enfants_–_Victimes_de_l'Holocauste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Monument_des_Enfants_%E2%80%93_Victimes_de_l%27Holocauste</t>
+          <t>Monument_des_Enfants_–_Victimes_de_l'Holocauste</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Monument des Enfants – Victimes de l’Holocauste est un monument commémorant les enfants – victimes de l’Holocauste, qui se trouve au cimetière juif d'Ulica Okopowa (pl) à Varsovie. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Monument_des_Enfants_%E2%80%93_Victimes_de_l%27Holocauste</t>
+          <t>Monument_des_Enfants_–_Victimes_de_l'Holocauste</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le monument a été fondé par Jacek Eisner. Il ressemble à un haut mur avec des barbelés, auquel il mènent les plaques disposées en forme de menorah. En bas du monument se trouvent les ruines du ghetto dans lesquels on a intégré les photos des enfants juifs, morts pendant la Seconde Guerre mondiale. Au-dessous d’eux, il y a un panneau avec une inscription en trois langues : polonais, hébreu et anglais : À la mémoire d’un million d’enfants juifs tués par des barbares allemands 1939-194. Une des photographies présente une fille portant des vêtements à carreaux et un bonnet, qui s’appelait Lusia. Elle était la fille de Chaskiel Bronstein, propriétaire du studio de photographie Fotografika à Tarnów, mentionné dans le récit Mercedes Benz de Paweł Huelle. 
 Sur le monument, ils se trouvent aussi une tombe symbolique de la famille Szteinman, tuée durant l’Holocauste et les deux plaques commémoratives :
@@ -528,7 +542,7 @@
 Et seulement un souci
 Une seule grimace sur la bouche
 Qui, ma chère maman,
-Demain, va t’apporter le pain[1] ? »
+Demain, va t’apporter le pain ? »
 </t>
         </is>
       </c>
